--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Uniandes\EDA\Reestructura\ISIS1225-Laboratorio-5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02a39bf66942bb9d/Escritorio/Laboratorio5-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C077633-6DB4-480A-8DD5-0CF440602032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{8C077633-6DB4-480A-8DD5-0CF440602032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD2FD81-5B3A-4C7F-807E-B2900E7AC565}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -314,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1168,14 +1179,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-8.9292996496848881E-2"/>
+                  <c:y val="0.51289386565372797"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1247,6 +1259,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>419.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958.40700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2787.3780000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7021.9129999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11227.227000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1257,6 +1293,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1305,14 +1355,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="-0.27066428529903819"/>
+                  <c:y val="0.21399566731294267"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1384,6 +1435,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1408.443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10490.727999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85506.788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304597.06699999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1143640.4920000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3825484.3080000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5675390.6880000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1402,13 +1477,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="700019391"/>
+        <c:axId val="700018911"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1482,7 +1558,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1642,6 +1718,69 @@
         </c:txPr>
         <c:crossAx val="1328118000"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="700018911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700019391"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="700019391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="700018911"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1853,14 +1992,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-4.8680235725251327E-2"/>
+                  <c:y val="0.4642792373943207"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1932,6 +2072,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485.524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1094.107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3381.4409999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8446.5910000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14698.65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1942,6 +2106,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1990,14 +2168,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="-0.29468789227433528"/>
+                  <c:y val="0.337165156491117"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2069,6 +2248,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1404.723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11551.525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94186.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325638.38500000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1612181.9790000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6089741.0029999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11502722.661</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2087,13 +2290,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="803887727"/>
+        <c:axId val="711426591"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2167,7 +2371,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2329,6 +2533,69 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="711426591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803887727"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="803887727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="711426591"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2477,7 +2744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2535,14 +2802,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.31005718727324794"/>
+                  <c:y val="0.27299687413445178"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2614,6 +2882,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.882999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2624,6 +2916,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2672,14 +2978,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="-5.5818848115683654E-2"/>
+                  <c:y val="0.38935969216159538"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2751,6 +3058,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.123000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1544.3630000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3546.0590000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11432.418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30508.704000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52473.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2769,13 +3100,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="791759167"/>
+        <c:axId val="704531103"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1328118000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2849,7 +3181,1628 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
               <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="704531103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791759167"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="791759167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="704531103"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion Merge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31619289933119316"/>
+                  <c:y val="0.26058071814860378"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$H$14:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.433999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.022000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13546528185661597"/>
+                  <c:y val="0.43657863283323778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$I$14:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>456.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1285.0519999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3284.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5097.7389999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="719931615"/>
+        <c:axId val="719929695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328121328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1328121328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tiempo de Ejecución [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328118000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="719929695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719931615"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="719931615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="719929695"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Comparación de tiempos de ejecucion Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Array List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41525017402544406"/>
+                  <c:y val="0.46176603275671901"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$C$25:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225.39400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E3F-4D83-B3F0-06019FFE22C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328118000"/>
+        <c:axId val="1328121328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01-Data Lab 4'!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linked List</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17285106167634012"/>
+                  <c:y val="0.56455464775207409"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01-Data Lab 4'!$D$25:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1088.4280000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3128.8980000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11727.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40675.123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75900.771999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E3F-4D83-B3F0-06019FFE22C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="735665263"/>
+        <c:axId val="735663823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328118000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> de la muestra [Num. elementos]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3011,532 +4964,16 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion Merge</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Array List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$14:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Linked List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$I$14:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FBFE-4DE8-B6E0-DE4FEFDE004A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
-      </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="735663823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3572,807 +5009,22 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="735665263"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="735665263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo de Ejecución [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328118000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion Quick</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Array List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$25:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E3F-4D83-B3F0-06019FFE22C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01-Data Lab 4'!$D$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Linked List</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$25:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$25:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E3F-4D83-B3F0-06019FFE22C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1328118000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328121328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1328121328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo de Ejecución [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328118000"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="735663823"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7239,7 +7891,7 @@
     <tabColor rgb="FFC1F8F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7252,7 +7904,7 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7265,7 +7917,7 @@
     <tabColor rgb="FFF69E76"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7278,7 +7930,7 @@
     <tabColor rgb="FFE2B2E3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7291,7 +7943,7 @@
     <tabColor rgb="FFEAB0AA"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7302,7 +7954,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="9288780" cy="6065520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7335,7 +7987,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="9288780" cy="6065520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7368,7 +8020,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="9288780" cy="6065520"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -7401,7 +8053,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="9287435" cy="6069106"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -7434,7 +8086,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="9287435" cy="6069106"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -7461,6 +8113,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7534,9 +8190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7574,7 +8230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7680,7 +8336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7822,7 +8478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7830,19 +8486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="12" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="12" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
@@ -7859,7 +8515,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="45.75" thickBot="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="42" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +8541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="13.8">
       <c r="A3" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7893,8 +8549,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="20">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.786</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
         <v>5.0000000000000001E-3</v>
@@ -7903,10 +8563,14 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="20">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.78700000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="13.8">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -7914,8 +8578,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="4">
+        <v>28.337</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1408.443</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" s="7">
         <v>0.05</v>
@@ -7924,8 +8592,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="4">
+        <v>2.387</v>
+      </c>
+      <c r="I4" s="14">
+        <v>82.123000000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7">
@@ -7935,8 +8607,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="20">
+        <v>104.203</v>
+      </c>
+      <c r="D5" s="21">
+        <v>10490.727999999999</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
         <v>0.1</v>
@@ -7945,8 +8621,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="20">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="I5" s="21">
+        <v>329.04300000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7">
@@ -7956,8 +8636,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="4">
+        <v>419.53300000000002</v>
+      </c>
+      <c r="D6" s="14">
+        <v>85506.788</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7">
         <v>0.2</v>
@@ -7966,8 +8650,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="4">
+        <v>11.917</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1544.3630000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7">
@@ -7977,8 +8665,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="20">
+        <v>958.40700000000004</v>
+      </c>
+      <c r="D7" s="21">
+        <v>304597.06699999998</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12">
         <v>0.3</v>
@@ -7987,8 +8679,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="20">
+        <v>19.809000000000001</v>
+      </c>
+      <c r="I7" s="21">
+        <v>3546.0590000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7">
@@ -7998,8 +8694,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="4">
+        <v>2787.3780000000002</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1143640.4920000001</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="7">
         <v>0.5</v>
@@ -8008,8 +8708,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="4">
+        <v>43.195999999999998</v>
+      </c>
+      <c r="I8" s="14">
+        <v>11432.418</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7">
@@ -8019,8 +8723,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="20">
+        <v>7021.9129999999996</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3825484.3080000002</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12">
         <v>0.8</v>
@@ -8029,10 +8737,14 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="20">
+        <v>86.882999999999996</v>
+      </c>
+      <c r="I9" s="21">
+        <v>30508.704000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15" thickBot="1">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -8040,8 +8752,12 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="10">
+        <v>11227.227000000001</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5675390.6880000001</v>
+      </c>
       <c r="E10" s="11"/>
       <c r="F10" s="8">
         <v>1</v>
@@ -8050,10 +8766,14 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="10">
+        <v>119.008</v>
+      </c>
+      <c r="I10" s="15">
+        <v>52473.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1">
@@ -8070,7 +8790,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="27.6">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -8096,7 +8816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="13.8">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8104,8 +8824,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="4">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.996</v>
+      </c>
       <c r="E14" s="11"/>
       <c r="F14" s="7">
         <v>5.0000000000000001E-3</v>
@@ -8114,10 +8838,14 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.67900000000000005</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="13.8">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -8125,8 +8853,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="4">
+        <v>32.896000000000001</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1404.723</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="7">
         <v>0.05</v>
@@ -8135,8 +8867,12 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="4">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="I15" s="14">
+        <v>16.855</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
@@ -8146,8 +8882,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="4">
+        <v>142.08500000000001</v>
+      </c>
+      <c r="D16" s="14">
+        <v>11551.525</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="7">
         <v>0.1</v>
@@ -8156,8 +8896,12 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="4">
+        <v>5.07</v>
+      </c>
+      <c r="I16" s="14">
+        <v>56.857999999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7">
@@ -8167,8 +8911,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="4">
+        <v>485.524</v>
+      </c>
+      <c r="D17" s="14">
+        <v>94186.11</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="7">
         <v>0.2</v>
@@ -8177,8 +8925,12 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="4">
+        <v>11.824</v>
+      </c>
+      <c r="I17" s="14">
+        <v>211.078</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7">
@@ -8188,8 +8940,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="4">
+        <v>1094.107</v>
+      </c>
+      <c r="D18" s="14">
+        <v>325638.38500000001</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="7">
         <v>0.3</v>
@@ -8198,8 +8954,12 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="4">
+        <v>18.23</v>
+      </c>
+      <c r="I18" s="14">
+        <v>456.88799999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
@@ -8209,8 +8969,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="4">
+        <v>3381.4409999999998</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1612181.9790000001</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="7">
         <v>0.5</v>
@@ -8219,8 +8983,12 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="4">
+        <v>38.433999999999997</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1285.0519999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
@@ -8230,8 +8998,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="4">
+        <v>8446.5910000000003</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6089741.0029999996</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
         <v>0.8</v>
@@ -8240,10 +9012,14 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="4">
+        <v>71.198999999999998</v>
+      </c>
+      <c r="I20" s="14">
+        <v>3284.5909999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -8251,8 +9027,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="10">
+        <v>14698.65</v>
+      </c>
+      <c r="D21" s="15">
+        <v>11502722.661</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="8">
         <v>1</v>
@@ -8261,10 +9041,14 @@
         <f>Table134[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="10">
+        <v>91.022000000000006</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5097.7389999999996</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:9" ht="15" thickBot="1"/>
     <row r="23" spans="1:9">
       <c r="A23" s="34" t="s">
         <v>10</v>
@@ -8273,7 +9057,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="27.6">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
@@ -8295,8 +9079,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.63700000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
@@ -8306,8 +9094,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="4">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>48.93</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
@@ -8317,8 +9109,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="4">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="D27" s="14">
+        <v>223.429</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
@@ -8328,8 +9124,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="4">
+        <v>10.417</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1088.4280000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
@@ -8339,8 +9139,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="4">
+        <v>20.277000000000001</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3128.8980000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
@@ -8350,8 +9154,12 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="4">
+        <v>54.445999999999998</v>
+      </c>
+      <c r="D30" s="14">
+        <v>11727.09</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
@@ -8361,10 +9169,14 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="4">
+        <v>134.316</v>
+      </c>
+      <c r="D31" s="14">
+        <v>40675.123</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -8372,8 +9184,15 @@
         <f>Table135[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="10">
+        <v>225.39400000000001</v>
+      </c>
+      <c r="D32" s="15">
+        <v>75900.771999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
